--- a/results/specifications.xlsx
+++ b/results/specifications.xlsx
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,9 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,7 +445,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -443,7 +453,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -451,7 +461,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -459,7 +469,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
     </row>
@@ -467,7 +477,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -475,7 +485,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -483,7 +493,7 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -491,7 +501,7 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>40</v>
       </c>
     </row>
@@ -499,7 +509,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -507,7 +517,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
     </row>

--- a/results/specifications.xlsx
+++ b/results/specifications.xlsx
@@ -25,13 +25,13 @@
     <t>Bolt Circle Diameter</t>
   </si>
   <si>
-    <t>4.248 in / 107.900 mm</t>
+    <t>4.492 in / 114.100 mm</t>
   </si>
   <si>
     <t>Brake Pilot Diameter</t>
   </si>
   <si>
-    <t>2.5 in / 63.500 mm</t>
+    <t>2.677 in / 68.000 mm</t>
   </si>
   <si>
     <t>Flange Bolt Hole Quantity</t>
@@ -40,19 +40,19 @@
     <t>Flange Diameter</t>
   </si>
   <si>
-    <t>5.35 in / 135.900 mm</t>
+    <t>5.461 in / 138.700 mm</t>
   </si>
   <si>
     <t>Flange Offset</t>
   </si>
   <si>
-    <t>1.858 in / 47.200 mm</t>
+    <t>2.244 in / 57.000 mm</t>
   </si>
   <si>
     <t>Hub Pilot Diameter</t>
   </si>
   <si>
-    <t>3.74 in / 95.000 mm</t>
+    <t>3.26 in / 82.800 mm</t>
   </si>
   <si>
     <t>Spline Quantity</t>
@@ -61,7 +61,7 @@
     <t>Wheel Pilot Diameter</t>
   </si>
   <si>
-    <t>2.488 in / 63.200 mm</t>
+    <t>2.634 in / 66.900 mm</t>
   </si>
   <si>
     <t>Wheel Stud Quantity</t>
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.25" customHeight="1">
